--- a/Validación.xlsx
+++ b/Validación.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -264,13 +264,13 @@
     <t>En la selección del tipo de tarjeta</t>
   </si>
   <si>
-    <t>Podría ser interesante incluir paginación para las transferencias</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,11 +675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Validación.xlsx
+++ b/Validación.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Pauta</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Utilizado por ejemplo en el método de desconexión, debería utilizarse también en formularios</t>
   </si>
   <si>
-    <t>Cuando la cuenta se encuentra en  0 € cambiamos de color a rojo, y con las transferencias en el caso de una de más de 1000 € pasa a color verde</t>
-  </si>
-  <si>
     <t>Por ejemplo en el icono de desconexión</t>
   </si>
   <si>
@@ -265,12 +262,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Se implementó una clarificación en los botones para representar mediante colores la acción principal</t>
+  </si>
+  <si>
+    <t>Se utilizaba para los mensajes de error, pero además se implementó por ejemplo para el color de las cuentas bancarias en función del crédito</t>
+  </si>
+  <si>
+    <t>Para esto se implementó el mecanismo de cambio de color en cuentas. Cuando la cuenta se encuentra en  0 € cambiamos de color a rojo, y con las transferencias en el caso de una de más de 1000 € pasa a color verde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,11 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,9 +825,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
@@ -975,9 +983,11 @@
         <v>1</v>
       </c>
       <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="7" t="s">
@@ -1013,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
@@ -1030,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
@@ -1096,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
@@ -1168,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
@@ -1354,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
